--- a/trial-team2/Facebook/src/data/my-data.xlsx
+++ b/trial-team2/Facebook/src/data/my-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\IdeaProjects\web-automation-selenium-framework-team2\Facebook\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5793252-01A8-48E4-BDA2-4E5506624008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3043D2-FA1F-436E-816F-C6B0885A39D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>car</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>list</t>
   </si>
 </sst>
 </file>
@@ -357,34 +360,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
